--- a/A1/sample_with_image.xlsx
+++ b/A1/sample_with_image.xlsx
@@ -128,7 +128,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>28.67114639282227</v>
+        <v>29.93304443359375</v>
       </c>
       <c r="H1" t="n">
-        <v>0.7448999881744385</v>
+        <v>0.758400022983551</v>
       </c>
     </row>
   </sheetData>
